--- a/yeniveri.xlsx
+++ b/yeniveri.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osman Esad\Documents\GitHub\kitap_stok_takip_py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osmanesad/Desktop/kitap_stok_takip_py/kitap_stok_takip_py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B84AE1-BC5F-4363-A781-923FEEA09F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CB2CA9-064C-E942-8ECB-7FF4CDF18B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="285" windowWidth="27540" windowHeight="13410" xr2:uid="{79ECE23B-F188-4A39-B661-515B77DC24DA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" xr2:uid="{79ECE23B-F188-4A39-B661-515B77DC24DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>kitap_adi</t>
   </si>
@@ -53,40 +53,10 @@
     <t>kayit_tarihi</t>
   </si>
   <si>
-    <t>Klasikler 1</t>
-  </si>
-  <si>
     <t>Anonim 1</t>
   </si>
   <si>
-    <t>Klasikler 2</t>
-  </si>
-  <si>
-    <t>Anonim 2</t>
-  </si>
-  <si>
-    <t>Klasikler 3</t>
-  </si>
-  <si>
-    <t>Anonim 3</t>
-  </si>
-  <si>
-    <t>Klasikler 4</t>
-  </si>
-  <si>
-    <t>Anonim 4</t>
-  </si>
-  <si>
-    <t>Klasikler 5</t>
-  </si>
-  <si>
-    <t>Anonim 5</t>
-  </si>
-  <si>
-    <t>Klasikler 6</t>
-  </si>
-  <si>
-    <t>Anonim 6</t>
+    <t>London PubsD Publish</t>
   </si>
 </sst>
 </file>
@@ -460,22 +430,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2510F6E-F5E9-40C2-99E8-090F9FD6F39D}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,95 +462,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2">
-        <v>234235344</v>
+        <v>97822344</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>234235345</v>
-      </c>
-      <c r="D3">
-        <v>67</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>234235346</v>
-      </c>
-      <c r="D4">
-        <v>68</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>234235347</v>
-      </c>
-      <c r="D5">
-        <v>69</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>234235348</v>
-      </c>
-      <c r="D6">
-        <v>70</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>234235349</v>
-      </c>
-      <c r="D7">
-        <v>71</v>
-      </c>
-      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
